--- a/DB/Tablas de aprendizaje de movimientos/Dratini, Dragonair y Dragonite (S).xlsx
+++ b/DB/Tablas de aprendizaje de movimientos/Dratini, Dragonair y Dragonite (S).xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\descargas\RETOCAR Tablas de movimientos - copia\Tablas de aprendizaje de movimientos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alfax\Desktop\convertidas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7752"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11550" windowHeight="5415" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Dratini" sheetId="1" r:id="rId1"/>
@@ -17,9 +17,9 @@
     <sheet name="Dragonite (S)" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Dragonair!$A$2:$A$28</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Dragonite (S)'!$A$2:$A$36</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Dratini!$A$2:$A$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Dragonair!$A$2:$A$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Dragonite (S)'!$A$2:$A$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Dratini!$A$2:$A$22</definedName>
     <definedName name="_xlnm.Extract" localSheetId="1">Dragonair!#REF!</definedName>
     <definedName name="_xlnm.Extract" localSheetId="2">'Dragonite (S)'!#REF!</definedName>
     <definedName name="_xlnm.Extract" localSheetId="0">Dratini!#REF!</definedName>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="39">
   <si>
     <t>Movimiento</t>
   </si>
@@ -120,55 +120,43 @@
     <t>Garra dragón</t>
   </si>
   <si>
+    <t>Poder oculto</t>
+  </si>
+  <si>
+    <t>Sustituto</t>
+  </si>
+  <si>
+    <t>MT</t>
+  </si>
+  <si>
+    <t>Atracción</t>
+  </si>
+  <si>
+    <t>Protección</t>
+  </si>
+  <si>
+    <t>Poder pasado</t>
+  </si>
+  <si>
+    <t>Rayo hielo</t>
+  </si>
+  <si>
+    <t>Danza lluvia</t>
+  </si>
+  <si>
+    <t>Día soleado</t>
+  </si>
+  <si>
+    <t>Sol matinal</t>
+  </si>
+  <si>
     <t>Esfera aural</t>
-  </si>
-  <si>
-    <t>Poder oculto</t>
-  </si>
-  <si>
-    <t>Sustituto</t>
-  </si>
-  <si>
-    <t>MT</t>
-  </si>
-  <si>
-    <t>Atracción</t>
-  </si>
-  <si>
-    <t>Protección</t>
-  </si>
-  <si>
-    <t>Poder pasado</t>
-  </si>
-  <si>
-    <t>Terratemblor</t>
-  </si>
-  <si>
-    <t>Rayo hielo</t>
-  </si>
-  <si>
-    <t>Bola sombra</t>
-  </si>
-  <si>
-    <t>Danza lluvia</t>
-  </si>
-  <si>
-    <t>Día soleado</t>
-  </si>
-  <si>
-    <t>Levitón</t>
-  </si>
-  <si>
-    <t>Sol matinal</t>
-  </si>
-  <si>
-    <t>Acua aro</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -507,19 +495,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:B29"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -527,7 +515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -535,7 +523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -543,7 +531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -551,7 +539,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -559,7 +547,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -567,7 +555,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -575,7 +563,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -583,7 +571,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -591,7 +579,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -599,7 +587,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -607,7 +595,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -615,7 +603,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -623,7 +611,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -631,7 +619,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -639,108 +627,60 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>39</v>
-      </c>
       <c r="B20" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>42</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -754,19 +694,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:B29"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:XFD25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -774,7 +714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -782,7 +722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -790,7 +730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -798,7 +738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -806,7 +746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -814,7 +754,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -822,7 +762,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -830,7 +770,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -838,7 +778,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -846,7 +786,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -854,7 +794,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -862,7 +802,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -870,7 +810,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -878,7 +818,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -886,108 +826,76 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
       <c r="B22" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>42</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1001,19 +909,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="B37" sqref="A37:B37"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1021,7 +929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -1029,7 +937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -1037,7 +945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -1045,7 +953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1053,7 +961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1061,7 +969,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1069,7 +977,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -1077,15 +985,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B9" s="3">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1093,7 +1001,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1101,7 +1009,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1109,7 +1017,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -1117,7 +1025,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1125,7 +1033,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -1133,7 +1041,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1141,7 +1049,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -1149,7 +1057,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1157,7 +1065,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -1165,7 +1073,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -1173,124 +1081,84 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>37</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>40</v>
-      </c>
       <c r="B30" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>30</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
